--- a/dialog_data.xlsx
+++ b/dialog_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\spelifil\projekty\dialogsorter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60C7071-49F3-445B-A5C7-1B5E9095612A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E40D465-142C-4AF0-9E28-ADCB97B3C34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,26 +57,6 @@
     <t>V den konání Dialogu (19.6.) budu ve škole přítomen/přítomna</t>
   </si>
   <si>
-    <t>1. blok
-Jan Bárta - výtvarník, ADRA
-František Ivan - mladý podnikatel 
-Petr Beneš - Volejbalista 
-Czech substance - osvěta návykových látek 
-!!Na přednášce Czechsubstance budeme pravděpodobně vyb...</t>
-  </si>
-  <si>
-    <t>2. blok
-David Marek - ekonomie 
-Jaroslav Jirák - Neurazitelny 
-Petra Vítková - evropská žalobkyně </t>
-  </si>
-  <si>
-    <t>3. blok
-Adam Široký - bývalý student, zakladatel Dialogu 
-Bohdan Ulihrach - tenista 
-Zdeněk Ďuriš - oceánologie</t>
-  </si>
-  <si>
     <t>Je ještě něco, co nám chceš sdělit?</t>
   </si>
   <si>
@@ -2008,6 +1988,15 @@
   </si>
   <si>
     <t>Štěpaníková</t>
+  </si>
+  <si>
+    <t>1. blok</t>
+  </si>
+  <si>
+    <t>2. blok</t>
+  </si>
+  <si>
+    <t>3. blok</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2004,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -2048,7 +2037,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -2079,7 +2068,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2088,10 +2077,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2123,9 +2112,9 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Příjmení" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Třída" dataDxfId="5"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="V den konání Dialogu (19.6.) budu ve škole přítomen/přítomna" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="1. blok_x000a__x000a_Jan Bárta - výtvarník, ADRA_x000a_František Ivan - mladý podnikatel _x000a_Petr Beneš - Volejbalista _x000a_Czech substance - osvěta návykových látek _x000a_!!Na přednášce Czechsubstance budeme pravděpodobně vyb..." dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2. blok_x000a__x000a_David Marek - ekonomie _x000a_Jaroslav Jirák - Neurazitelny _x000a_Petra Vítková - evropská žalobkyně " dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="3. blok_x000a__x000a_Adam Široký - bývalý student, zakladatel Dialogu _x000a_Bohdan Ulihrach - tenista _x000a_Zdeněk Ďuriš - oceánologie" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="1. blok" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2. blok" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="3. blok" dataDxfId="1"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Je ještě něco, co nám chceš sdělit?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2431,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2472,16 +2461,16 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" t="s">
+        <v>655</v>
+      </c>
+      <c r="M1" t="s">
+        <v>656</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2495,32 +2484,32 @@
         <v>45089.8661111111</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2534,32 +2523,32 @@
         <v>45089.866620370398</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2573,32 +2562,32 @@
         <v>45089.867083333302</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2612,32 +2601,32 @@
         <v>45089.867303240702</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>41</v>
       </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2651,32 +2640,32 @@
         <v>45089.867384259298</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
         <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2690,32 +2679,32 @@
         <v>45089.867939814802</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
         <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2729,32 +2718,32 @@
         <v>45089.868032407401</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
-      </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2768,32 +2757,32 @@
         <v>45089.868900463</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
         <v>63</v>
       </c>
-      <c r="H9" t="s">
+      <c r="L9" t="s">
         <v>64</v>
       </c>
-      <c r="I9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2807,32 +2796,32 @@
         <v>45089.868900463</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
         <v>70</v>
-      </c>
-      <c r="H10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2846,32 +2835,32 @@
         <v>45089.869710648098</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
         <v>19</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2885,32 +2874,32 @@
         <v>45089.869756944398</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2924,32 +2913,32 @@
         <v>45089.869803240697</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" t="s">
         <v>19</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2963,32 +2952,32 @@
         <v>45089.869861111103</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
         <v>19</v>
-      </c>
-      <c r="K14" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3002,32 +2991,32 @@
         <v>45089.869918981502</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
         <v>19</v>
-      </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3041,32 +3030,32 @@
         <v>45089.870104166701</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3080,32 +3069,32 @@
         <v>45089.870787036998</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" t="s">
         <v>102</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" t="s">
         <v>103</v>
       </c>
-      <c r="I17" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" t="s">
-        <v>106</v>
-      </c>
       <c r="L17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -3119,32 +3108,32 @@
         <v>45089.871030092603</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -3158,32 +3147,32 @@
         <v>45089.871273148099</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
         <v>19</v>
-      </c>
-      <c r="K19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3197,32 +3186,32 @@
         <v>45089.871388888903</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -3236,35 +3225,35 @@
         <v>45089.872094907398</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>121</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>96</v>
+      </c>
+      <c r="N21" t="s">
         <v>122</v>
-      </c>
-      <c r="H21" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" t="s">
-        <v>124</v>
-      </c>
-      <c r="L21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" t="s">
-        <v>99</v>
-      </c>
-      <c r="N21" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3278,32 +3267,32 @@
         <v>45089.872175925899</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>121</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
         <v>19</v>
-      </c>
-      <c r="K22" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3317,32 +3306,32 @@
         <v>45089.8723032407</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" t="s">
         <v>19</v>
-      </c>
-      <c r="K23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -3356,32 +3345,32 @@
         <v>45089.872731481497</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" t="s">
         <v>19</v>
-      </c>
-      <c r="K24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" t="s">
-        <v>82</v>
-      </c>
-      <c r="M24" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -3395,32 +3384,32 @@
         <v>45089.872858796298</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" t="s">
         <v>19</v>
-      </c>
-      <c r="K25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L25" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -3434,32 +3423,32 @@
         <v>45089.873657407399</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -3473,32 +3462,32 @@
         <v>45089.874062499999</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" t="s">
         <v>19</v>
-      </c>
-      <c r="K27" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" t="s">
-        <v>82</v>
-      </c>
-      <c r="M27" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3512,32 +3501,32 @@
         <v>45089.874131944402</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L28" t="s">
+        <v>64</v>
+      </c>
+      <c r="M28" t="s">
         <v>19</v>
-      </c>
-      <c r="K28" t="s">
-        <v>142</v>
-      </c>
-      <c r="L28" t="s">
-        <v>67</v>
-      </c>
-      <c r="M28" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3551,32 +3540,32 @@
         <v>45089.874212962997</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
+        <v>156</v>
+      </c>
+      <c r="L29" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" t="s">
         <v>157</v>
-      </c>
-      <c r="H29" t="s">
-        <v>158</v>
-      </c>
-      <c r="I29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" t="s">
-        <v>159</v>
-      </c>
-      <c r="L29" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -3590,32 +3579,32 @@
         <v>45089.874247685198</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30" t="s">
         <v>19</v>
-      </c>
-      <c r="K30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" t="s">
-        <v>67</v>
-      </c>
-      <c r="M30" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -3629,32 +3618,32 @@
         <v>45089.874386574098</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
+        <v>165</v>
+      </c>
+      <c r="L31" t="s">
+        <v>64</v>
+      </c>
+      <c r="M31" t="s">
         <v>19</v>
-      </c>
-      <c r="K31" t="s">
-        <v>168</v>
-      </c>
-      <c r="L31" t="s">
-        <v>67</v>
-      </c>
-      <c r="M31" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -3668,32 +3657,32 @@
         <v>45089.874432870398</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -3707,35 +3696,35 @@
         <v>45089.874432870398</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" t="s">
+        <v>139</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" t="s">
         <v>19</v>
       </c>
-      <c r="K33" t="s">
-        <v>142</v>
-      </c>
-      <c r="L33" t="s">
-        <v>44</v>
-      </c>
-      <c r="M33" t="s">
-        <v>22</v>
-      </c>
       <c r="N33" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -3749,32 +3738,32 @@
         <v>45089.874432870398</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H34" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K34" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -3788,35 +3777,35 @@
         <v>45089.874513888899</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35" t="s">
+        <v>183</v>
+      </c>
+      <c r="I35" t="s">
+        <v>184</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s">
         <v>185</v>
       </c>
-      <c r="H35" t="s">
+      <c r="L35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" t="s">
+        <v>96</v>
+      </c>
+      <c r="N35" t="s">
         <v>186</v>
-      </c>
-      <c r="I35" t="s">
-        <v>187</v>
-      </c>
-      <c r="J35" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" t="s">
-        <v>188</v>
-      </c>
-      <c r="L35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35" t="s">
-        <v>99</v>
-      </c>
-      <c r="N35" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -3830,35 +3819,35 @@
         <v>45089.874664351897</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -3872,32 +3861,32 @@
         <v>45089.8746875</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -3911,32 +3900,32 @@
         <v>45089.874884259298</v>
       </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -3950,32 +3939,32 @@
         <v>45089.875277777799</v>
       </c>
       <c r="D39" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H39" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L39" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -3989,32 +3978,32 @@
         <v>45089.875300925902</v>
       </c>
       <c r="D40" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H40" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" t="s">
         <v>19</v>
-      </c>
-      <c r="K40" t="s">
-        <v>43</v>
-      </c>
-      <c r="L40" t="s">
-        <v>37</v>
-      </c>
-      <c r="M40" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -4028,32 +4017,32 @@
         <v>45089.875682870399</v>
       </c>
       <c r="D41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H41" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M41" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -4067,32 +4056,32 @@
         <v>45089.8762152778</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E42" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L42" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -4106,32 +4095,32 @@
         <v>45089.8763078704</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E43" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H43" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J43" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -4145,32 +4134,32 @@
         <v>45089.876423611102</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E44" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H44" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I44" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J44" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L44" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -4184,35 +4173,35 @@
         <v>45089.876446759299</v>
       </c>
       <c r="D45" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H45" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I45" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" t="s">
+        <v>196</v>
+      </c>
+      <c r="L45" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" t="s">
         <v>19</v>
       </c>
-      <c r="K45" t="s">
-        <v>199</v>
-      </c>
-      <c r="L45" t="s">
-        <v>37</v>
-      </c>
-      <c r="M45" t="s">
-        <v>22</v>
-      </c>
       <c r="N45" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -4226,32 +4215,32 @@
         <v>45089.876747685201</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E46" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H46" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J46" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K46" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M46" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -4265,32 +4254,32 @@
         <v>45089.8770717593</v>
       </c>
       <c r="D47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -4304,32 +4293,32 @@
         <v>45089.8774305556</v>
       </c>
       <c r="D48" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E48" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H48" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -4343,32 +4332,32 @@
         <v>45089.8776967593</v>
       </c>
       <c r="D49" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H49" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I49" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" t="s">
+        <v>139</v>
+      </c>
+      <c r="L49" t="s">
+        <v>79</v>
+      </c>
+      <c r="M49" t="s">
         <v>19</v>
-      </c>
-      <c r="K49" t="s">
-        <v>142</v>
-      </c>
-      <c r="L49" t="s">
-        <v>82</v>
-      </c>
-      <c r="M49" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -4382,32 +4371,32 @@
         <v>45089.877754629597</v>
       </c>
       <c r="D50" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E50" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H50" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I50" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" t="s">
+        <v>79</v>
+      </c>
+      <c r="M50" t="s">
         <v>19</v>
-      </c>
-      <c r="K50" t="s">
-        <v>28</v>
-      </c>
-      <c r="L50" t="s">
-        <v>82</v>
-      </c>
-      <c r="M50" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -4421,32 +4410,32 @@
         <v>45089.879837963003</v>
       </c>
       <c r="D51" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E51" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H51" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I51" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J51" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" t="s">
+        <v>34</v>
+      </c>
+      <c r="M51" t="s">
         <v>19</v>
-      </c>
-      <c r="K51" t="s">
-        <v>28</v>
-      </c>
-      <c r="L51" t="s">
-        <v>37</v>
-      </c>
-      <c r="M51" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -4460,32 +4449,32 @@
         <v>45089.880671296298</v>
       </c>
       <c r="D52" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E52" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H52" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I52" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" t="s">
+        <v>79</v>
+      </c>
+      <c r="M52" t="s">
         <v>27</v>
-      </c>
-      <c r="J52" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" t="s">
-        <v>82</v>
-      </c>
-      <c r="M52" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -4499,32 +4488,32 @@
         <v>45089.881828703699</v>
       </c>
       <c r="D53" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E53" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H53" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I53" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J53" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L53" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -4538,32 +4527,32 @@
         <v>45089.881863425901</v>
       </c>
       <c r="D54" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E54" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H54" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I54" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K54" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L54" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -4577,32 +4566,32 @@
         <v>45089.8878356481</v>
       </c>
       <c r="D55" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E55" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H55" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I55" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" t="s">
+        <v>139</v>
+      </c>
+      <c r="L55" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" t="s">
         <v>19</v>
-      </c>
-      <c r="K55" t="s">
-        <v>142</v>
-      </c>
-      <c r="L55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -4616,32 +4605,32 @@
         <v>45089.8878819444</v>
       </c>
       <c r="D56" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E56" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H56" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I56" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K56" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M56" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -4655,32 +4644,32 @@
         <v>45089.888136574104</v>
       </c>
       <c r="D57" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E57" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I57" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K57" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L57" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M57" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -4694,35 +4683,35 @@
         <v>45089.888888888898</v>
       </c>
       <c r="D58" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E58" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" t="s">
+        <v>275</v>
+      </c>
+      <c r="H58" t="s">
+        <v>276</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" t="s">
+        <v>277</v>
+      </c>
+      <c r="L58" t="s">
+        <v>79</v>
+      </c>
+      <c r="M58" t="s">
+        <v>51</v>
+      </c>
+      <c r="N58" t="s">
         <v>278</v>
-      </c>
-      <c r="H58" t="s">
-        <v>279</v>
-      </c>
-      <c r="I58" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58" t="s">
-        <v>19</v>
-      </c>
-      <c r="K58" t="s">
-        <v>280</v>
-      </c>
-      <c r="L58" t="s">
-        <v>82</v>
-      </c>
-      <c r="M58" t="s">
-        <v>54</v>
-      </c>
-      <c r="N58" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -4736,35 +4725,35 @@
         <v>45089.890185185199</v>
       </c>
       <c r="D59" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E59" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" t="s">
+        <v>281</v>
+      </c>
+      <c r="H59" t="s">
+        <v>282</v>
+      </c>
+      <c r="I59" t="s">
+        <v>283</v>
+      </c>
+      <c r="J59" t="s">
+        <v>102</v>
+      </c>
+      <c r="K59" t="s">
         <v>284</v>
       </c>
-      <c r="H59" t="s">
+      <c r="L59" t="s">
+        <v>41</v>
+      </c>
+      <c r="M59" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" t="s">
         <v>285</v>
-      </c>
-      <c r="I59" t="s">
-        <v>286</v>
-      </c>
-      <c r="J59" t="s">
-        <v>105</v>
-      </c>
-      <c r="K59" t="s">
-        <v>287</v>
-      </c>
-      <c r="L59" t="s">
-        <v>44</v>
-      </c>
-      <c r="M59" t="s">
-        <v>22</v>
-      </c>
-      <c r="N59" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -4778,32 +4767,32 @@
         <v>45089.890393518501</v>
       </c>
       <c r="D60" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E60" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H60" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J60" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" t="s">
         <v>19</v>
-      </c>
-      <c r="K60" t="s">
-        <v>28</v>
-      </c>
-      <c r="L60" t="s">
-        <v>29</v>
-      </c>
-      <c r="M60" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -4817,32 +4806,32 @@
         <v>45089.890416666698</v>
       </c>
       <c r="D61" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E61" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H61" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I61" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K61" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L61" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M61" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -4856,32 +4845,32 @@
         <v>45089.890706018501</v>
       </c>
       <c r="D62" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E62" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H62" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I62" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J62" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L62" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M62" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -4895,32 +4884,32 @@
         <v>45089.890775462998</v>
       </c>
       <c r="D63" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E63" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I63" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J63" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" t="s">
+        <v>299</v>
+      </c>
+      <c r="L63" t="s">
+        <v>64</v>
+      </c>
+      <c r="M63" t="s">
         <v>19</v>
-      </c>
-      <c r="K63" t="s">
-        <v>302</v>
-      </c>
-      <c r="L63" t="s">
-        <v>67</v>
-      </c>
-      <c r="M63" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -4934,32 +4923,32 @@
         <v>45089.890995370399</v>
       </c>
       <c r="D64" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E64" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H64" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I64" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J64" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" t="s">
+        <v>304</v>
+      </c>
+      <c r="L64" t="s">
+        <v>26</v>
+      </c>
+      <c r="M64" t="s">
         <v>19</v>
-      </c>
-      <c r="K64" t="s">
-        <v>307</v>
-      </c>
-      <c r="L64" t="s">
-        <v>29</v>
-      </c>
-      <c r="M64" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -4973,32 +4962,32 @@
         <v>45089.892048611102</v>
       </c>
       <c r="D65" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E65" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H65" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I65" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" t="s">
+        <v>50</v>
+      </c>
+      <c r="L65" t="s">
+        <v>26</v>
+      </c>
+      <c r="M65" t="s">
         <v>19</v>
-      </c>
-      <c r="K65" t="s">
-        <v>53</v>
-      </c>
-      <c r="L65" t="s">
-        <v>29</v>
-      </c>
-      <c r="M65" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -5012,35 +5001,35 @@
         <v>45089.892280092601</v>
       </c>
       <c r="D66" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E66" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H66" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I66" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J66" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" t="s">
+        <v>277</v>
+      </c>
+      <c r="L66" t="s">
+        <v>64</v>
+      </c>
+      <c r="M66" t="s">
         <v>19</v>
       </c>
-      <c r="K66" t="s">
-        <v>280</v>
-      </c>
-      <c r="L66" t="s">
-        <v>67</v>
-      </c>
-      <c r="M66" t="s">
-        <v>22</v>
-      </c>
       <c r="N66" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -5054,32 +5043,32 @@
         <v>45089.892615740697</v>
       </c>
       <c r="D67" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E67" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H67" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I67" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" t="s">
+        <v>156</v>
+      </c>
+      <c r="L67" t="s">
         <v>18</v>
       </c>
-      <c r="J67" t="s">
-        <v>19</v>
-      </c>
-      <c r="K67" t="s">
-        <v>159</v>
-      </c>
-      <c r="L67" t="s">
-        <v>21</v>
-      </c>
       <c r="M67" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -5093,32 +5082,32 @@
         <v>45089.893773148098</v>
       </c>
       <c r="D68" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E68" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H68" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I68" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J68" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" t="s">
+        <v>103</v>
+      </c>
+      <c r="L68" t="s">
+        <v>41</v>
+      </c>
+      <c r="M68" t="s">
         <v>19</v>
-      </c>
-      <c r="K68" t="s">
-        <v>106</v>
-      </c>
-      <c r="L68" t="s">
-        <v>44</v>
-      </c>
-      <c r="M68" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -5132,32 +5121,32 @@
         <v>45089.894293981502</v>
       </c>
       <c r="D69" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E69" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H69" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J69" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" t="s">
+        <v>63</v>
+      </c>
+      <c r="L69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M69" t="s">
         <v>19</v>
-      </c>
-      <c r="K69" t="s">
-        <v>66</v>
-      </c>
-      <c r="L69" t="s">
-        <v>29</v>
-      </c>
-      <c r="M69" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -5171,32 +5160,32 @@
         <v>45089.894826388903</v>
       </c>
       <c r="D70" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E70" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H70" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I70" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J70" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K70" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L70" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M70" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -5210,35 +5199,35 @@
         <v>45089.894907407397</v>
       </c>
       <c r="D71" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E71" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H71" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I71" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J71" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L71" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M71" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N71" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -5252,32 +5241,32 @@
         <v>45089.895069444399</v>
       </c>
       <c r="D72" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E72" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H72" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I72" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J72" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K72" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L72" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M72" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -5291,32 +5280,32 @@
         <v>45089.895115740699</v>
       </c>
       <c r="D73" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E73" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H73" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J73" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" t="s">
+        <v>33</v>
+      </c>
+      <c r="L73" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" t="s">
         <v>19</v>
-      </c>
-      <c r="K73" t="s">
-        <v>36</v>
-      </c>
-      <c r="L73" t="s">
-        <v>21</v>
-      </c>
-      <c r="M73" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -5330,32 +5319,32 @@
         <v>45089.895428240699</v>
       </c>
       <c r="D74" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E74" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H74" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J74" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K74" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L74" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M74" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -5369,32 +5358,32 @@
         <v>45089.895520833299</v>
       </c>
       <c r="D75" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E75" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H75" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I75" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J75" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" t="s">
+        <v>40</v>
+      </c>
+      <c r="L75" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" t="s">
         <v>19</v>
-      </c>
-      <c r="K75" t="s">
-        <v>43</v>
-      </c>
-      <c r="L75" t="s">
-        <v>21</v>
-      </c>
-      <c r="M75" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -5408,32 +5397,32 @@
         <v>45089.895578703698</v>
       </c>
       <c r="D76" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E76" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H76" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I76" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J76" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" t="s">
+        <v>64</v>
+      </c>
+      <c r="M76" t="s">
         <v>19</v>
-      </c>
-      <c r="K76" t="s">
-        <v>20</v>
-      </c>
-      <c r="L76" t="s">
-        <v>67</v>
-      </c>
-      <c r="M76" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -5447,32 +5436,32 @@
         <v>45089.896921296298</v>
       </c>
       <c r="D77" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E77" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H77" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I77" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J77" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K77" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L77" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M77" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -5486,32 +5475,32 @@
         <v>45089.899224537003</v>
       </c>
       <c r="D78" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E78" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H78" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J78" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K78" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L78" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -5525,32 +5514,32 @@
         <v>45089.899942129603</v>
       </c>
       <c r="D79" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E79" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H79" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I79" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J79" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K79" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M79" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -5564,32 +5553,32 @@
         <v>45089.900150463</v>
       </c>
       <c r="D80" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E80" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H80" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I80" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J80" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L80" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -5603,32 +5592,32 @@
         <v>45089.9058449074</v>
       </c>
       <c r="D81" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E81" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H81" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I81" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J81" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K81" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L81" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -5642,32 +5631,32 @@
         <v>45089.906469907401</v>
       </c>
       <c r="D82" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E82" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H82" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I82" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J82" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K82" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L82" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M82" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -5681,32 +5670,32 @@
         <v>45089.910312499997</v>
       </c>
       <c r="D83" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E83" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H83" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I83" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J83" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K83" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L83" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M83" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -5720,35 +5709,35 @@
         <v>45089.911597222199</v>
       </c>
       <c r="D84" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E84" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H84" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I84" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J84" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84" t="s">
+        <v>196</v>
+      </c>
+      <c r="L84" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" t="s">
         <v>19</v>
       </c>
-      <c r="K84" t="s">
-        <v>199</v>
-      </c>
-      <c r="L84" t="s">
-        <v>21</v>
-      </c>
-      <c r="M84" t="s">
-        <v>22</v>
-      </c>
       <c r="N84" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -5762,32 +5751,32 @@
         <v>45089.912546296298</v>
       </c>
       <c r="D85" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E85" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H85" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I85" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J85" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" t="s">
+        <v>165</v>
+      </c>
+      <c r="L85" t="s">
+        <v>79</v>
+      </c>
+      <c r="M85" t="s">
         <v>19</v>
-      </c>
-      <c r="K85" t="s">
-        <v>168</v>
-      </c>
-      <c r="L85" t="s">
-        <v>82</v>
-      </c>
-      <c r="M85" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -5801,35 +5790,35 @@
         <v>45089.916539351798</v>
       </c>
       <c r="D86" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E86" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H86" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J86" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K86" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L86" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M86" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N86" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -5843,35 +5832,35 @@
         <v>45089.916828703703</v>
       </c>
       <c r="D87" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E87" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H87" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J87" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K87" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L87" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M87" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N87" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -5885,35 +5874,35 @@
         <v>45089.917465277802</v>
       </c>
       <c r="D88" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E88" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I88" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J88" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" t="s">
+        <v>165</v>
+      </c>
+      <c r="L88" t="s">
+        <v>41</v>
+      </c>
+      <c r="M88" t="s">
         <v>19</v>
       </c>
-      <c r="K88" t="s">
-        <v>168</v>
-      </c>
-      <c r="L88" t="s">
-        <v>44</v>
-      </c>
-      <c r="M88" t="s">
-        <v>22</v>
-      </c>
       <c r="N88" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5927,35 +5916,35 @@
         <v>45089.917500000003</v>
       </c>
       <c r="D89" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E89" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H89" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I89" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J89" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" t="s">
+        <v>40</v>
+      </c>
+      <c r="L89" t="s">
+        <v>41</v>
+      </c>
+      <c r="M89" t="s">
         <v>19</v>
       </c>
-      <c r="K89" t="s">
-        <v>43</v>
-      </c>
-      <c r="L89" t="s">
-        <v>44</v>
-      </c>
-      <c r="M89" t="s">
-        <v>22</v>
-      </c>
       <c r="N89" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -5969,32 +5958,32 @@
         <v>45089.921307870398</v>
       </c>
       <c r="D90" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E90" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H90" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I90" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J90" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" t="s">
+        <v>103</v>
+      </c>
+      <c r="L90" t="s">
+        <v>26</v>
+      </c>
+      <c r="M90" t="s">
         <v>19</v>
-      </c>
-      <c r="K90" t="s">
-        <v>106</v>
-      </c>
-      <c r="L90" t="s">
-        <v>29</v>
-      </c>
-      <c r="M90" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -6008,32 +5997,32 @@
         <v>45089.921597222201</v>
       </c>
       <c r="D91" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E91" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H91" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I91" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" t="s">
+        <v>63</v>
+      </c>
+      <c r="L91" t="s">
+        <v>26</v>
+      </c>
+      <c r="M91" t="s">
         <v>19</v>
-      </c>
-      <c r="K91" t="s">
-        <v>66</v>
-      </c>
-      <c r="L91" t="s">
-        <v>29</v>
-      </c>
-      <c r="M91" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -6047,32 +6036,32 @@
         <v>45089.9227777778</v>
       </c>
       <c r="D92" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E92" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H92" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I92" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J92" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K92" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L92" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M92" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -6086,32 +6075,32 @@
         <v>45089.9308101852</v>
       </c>
       <c r="D93" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E93" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H93" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I93" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J93" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K93" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L93" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M93" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -6125,32 +6114,32 @@
         <v>45089.938680555599</v>
       </c>
       <c r="D94" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E94" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I94" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J94" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K94" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L94" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -6164,32 +6153,32 @@
         <v>45089.946238425902</v>
       </c>
       <c r="D95" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E95" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H95" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I95" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J95" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K95" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L95" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M95" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -6203,32 +6192,32 @@
         <v>45089.946909722203</v>
       </c>
       <c r="D96" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E96" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H96" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I96" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J96" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K96" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L96" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M96" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -6242,32 +6231,32 @@
         <v>45089.9474305556</v>
       </c>
       <c r="D97" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E97" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H97" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I97" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J97" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K97" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L97" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M97" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -6281,32 +6270,32 @@
         <v>45089.948622685202</v>
       </c>
       <c r="D98" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E98" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H98" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I98" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" t="s">
+        <v>16</v>
+      </c>
+      <c r="K98" t="s">
+        <v>121</v>
+      </c>
+      <c r="L98" t="s">
         <v>18</v>
       </c>
-      <c r="J98" t="s">
-        <v>19</v>
-      </c>
-      <c r="K98" t="s">
-        <v>124</v>
-      </c>
-      <c r="L98" t="s">
-        <v>21</v>
-      </c>
       <c r="M98" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -6320,32 +6309,32 @@
         <v>45089.949363425898</v>
       </c>
       <c r="D99" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E99" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H99" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I99" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J99" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K99" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L99" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M99" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -6359,32 +6348,32 @@
         <v>45089.959953703699</v>
       </c>
       <c r="D100" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E100" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H100" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I100" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J100" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K100" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L100" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M100" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -6398,32 +6387,32 @@
         <v>45089.9616550926</v>
       </c>
       <c r="D101" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E101" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H101" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I101" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J101" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K101" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M101" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -6437,32 +6426,32 @@
         <v>45089.976574074099</v>
       </c>
       <c r="D102" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E102" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H102" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I102" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J102" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K102" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L102" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M102" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -6476,32 +6465,32 @@
         <v>45090.266863425903</v>
       </c>
       <c r="D103" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E103" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H103" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I103" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J103" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" t="s">
+        <v>40</v>
+      </c>
+      <c r="L103" t="s">
+        <v>34</v>
+      </c>
+      <c r="M103" t="s">
         <v>19</v>
-      </c>
-      <c r="K103" t="s">
-        <v>43</v>
-      </c>
-      <c r="L103" t="s">
-        <v>37</v>
-      </c>
-      <c r="M103" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -6515,32 +6504,32 @@
         <v>45090.2960185185</v>
       </c>
       <c r="D104" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E104" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H104" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I104" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J104" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L104" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M104" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -6554,35 +6543,35 @@
         <v>45090.313553240703</v>
       </c>
       <c r="D105" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E105" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H105" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I105" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J105" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K105" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L105" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M105" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N105" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -6596,32 +6585,32 @@
         <v>45090.313912037003</v>
       </c>
       <c r="D106" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E106" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H106" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I106" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J106" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K106" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L106" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M106" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -6635,35 +6624,35 @@
         <v>45090.315416666701</v>
       </c>
       <c r="D107" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E107" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H107" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I107" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J107" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K107" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L107" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M107" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N107" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -6677,32 +6666,32 @@
         <v>45090.322627314803</v>
       </c>
       <c r="D108" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E108" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H108" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I108" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J108" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108" t="s">
+        <v>156</v>
+      </c>
+      <c r="L108" t="s">
+        <v>26</v>
+      </c>
+      <c r="M108" t="s">
         <v>19</v>
-      </c>
-      <c r="K108" t="s">
-        <v>159</v>
-      </c>
-      <c r="L108" t="s">
-        <v>29</v>
-      </c>
-      <c r="M108" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -6716,32 +6705,32 @@
         <v>45090.322638888902</v>
       </c>
       <c r="D109" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E109" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H109" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I109" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J109" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" t="s">
+        <v>435</v>
+      </c>
+      <c r="L109" t="s">
+        <v>26</v>
+      </c>
+      <c r="M109" t="s">
         <v>19</v>
-      </c>
-      <c r="K109" t="s">
-        <v>438</v>
-      </c>
-      <c r="L109" t="s">
-        <v>29</v>
-      </c>
-      <c r="M109" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -6755,32 +6744,32 @@
         <v>45090.357002314799</v>
       </c>
       <c r="D110" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E110" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H110" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I110" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J110" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K110" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L110" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M110" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -6794,32 +6783,32 @@
         <v>45090.360740740703</v>
       </c>
       <c r="D111" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E111" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H111" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I111" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J111" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K111" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L111" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M111" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -6833,32 +6822,32 @@
         <v>45090.362870370402</v>
       </c>
       <c r="D112" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E112" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H112" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J112" t="s">
+        <v>102</v>
+      </c>
+      <c r="K112" t="s">
+        <v>103</v>
+      </c>
+      <c r="L112" t="s">
+        <v>34</v>
+      </c>
+      <c r="M112" t="s">
         <v>27</v>
-      </c>
-      <c r="J112" t="s">
-        <v>105</v>
-      </c>
-      <c r="K112" t="s">
-        <v>106</v>
-      </c>
-      <c r="L112" t="s">
-        <v>37</v>
-      </c>
-      <c r="M112" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -6872,35 +6861,35 @@
         <v>45090.383437500001</v>
       </c>
       <c r="D113" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E113" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H113" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I113" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J113" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K113" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L113" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M113" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N113" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -6914,32 +6903,32 @@
         <v>45090.387476851902</v>
       </c>
       <c r="D114" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E114" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H114" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I114" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J114" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K114" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L114" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M114" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -6953,32 +6942,32 @@
         <v>45090.392638888901</v>
       </c>
       <c r="D115" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E115" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H115" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I115" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J115" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K115" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L115" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M115" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -6992,32 +6981,32 @@
         <v>45090.393564814804</v>
       </c>
       <c r="D116" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E116" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H116" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I116" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J116" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K116" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L116" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M116" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -7031,32 +7020,32 @@
         <v>45090.398067129601</v>
       </c>
       <c r="D117" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E117" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H117" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I117" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J117" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K117" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L117" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M117" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -7070,32 +7059,32 @@
         <v>45090.403726851902</v>
       </c>
       <c r="D118" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E118" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H118" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I118" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J118" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K118" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L118" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M118" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -7109,32 +7098,32 @@
         <v>45090.4071527778</v>
       </c>
       <c r="D119" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E119" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H119" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I119" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J119" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K119" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L119" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M119" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -7148,32 +7137,32 @@
         <v>45090.407476851797</v>
       </c>
       <c r="D120" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E120" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H120" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I120" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J120" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K120" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L120" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M120" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -7187,32 +7176,32 @@
         <v>45090.409675925897</v>
       </c>
       <c r="D121" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E121" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H121" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I121" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J121" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K121" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L121" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M121" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -7226,32 +7215,32 @@
         <v>45090.410428240699</v>
       </c>
       <c r="D122" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E122" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H122" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I122" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J122" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K122" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L122" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M122" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -7265,35 +7254,35 @@
         <v>45090.412141203698</v>
       </c>
       <c r="D123" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E123" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H123" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I123" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J123" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K123" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L123" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M123" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N123" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -7307,32 +7296,32 @@
         <v>45090.416145833296</v>
       </c>
       <c r="D124" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E124" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H124" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I124" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J124" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K124" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L124" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M124" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -7346,32 +7335,32 @@
         <v>45090.424085648097</v>
       </c>
       <c r="D125" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E125" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H125" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="I125" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J125" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K125" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L125" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M125" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -7385,32 +7374,32 @@
         <v>45090.424097222203</v>
       </c>
       <c r="D126" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E126" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H126" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="I126" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J126" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K126" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L126" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -7424,32 +7413,32 @@
         <v>45090.424270833297</v>
       </c>
       <c r="D127" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E127" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H127" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="I127" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J127" t="s">
+        <v>16</v>
+      </c>
+      <c r="K127" t="s">
+        <v>17</v>
+      </c>
+      <c r="L127" t="s">
+        <v>79</v>
+      </c>
+      <c r="M127" t="s">
         <v>19</v>
-      </c>
-      <c r="K127" t="s">
-        <v>20</v>
-      </c>
-      <c r="L127" t="s">
-        <v>82</v>
-      </c>
-      <c r="M127" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -7463,32 +7452,32 @@
         <v>45090.441250000003</v>
       </c>
       <c r="D128" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E128" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H128" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I128" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J128" t="s">
+        <v>16</v>
+      </c>
+      <c r="K128" t="s">
+        <v>185</v>
+      </c>
+      <c r="L128" t="s">
+        <v>64</v>
+      </c>
+      <c r="M128" t="s">
         <v>19</v>
-      </c>
-      <c r="K128" t="s">
-        <v>188</v>
-      </c>
-      <c r="L128" t="s">
-        <v>67</v>
-      </c>
-      <c r="M128" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -7502,35 +7491,35 @@
         <v>45090.448530092603</v>
       </c>
       <c r="D129" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E129" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H129" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I129" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J129" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K129" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L129" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M129" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N129" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -7544,32 +7533,32 @@
         <v>45090.454803240696</v>
       </c>
       <c r="D130" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E130" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="H130" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I130" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J130" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K130" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L130" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M130" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -7583,32 +7572,32 @@
         <v>45090.456122685202</v>
       </c>
       <c r="D131" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E131" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H131" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I131" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J131" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K131" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L131" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M131" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -7622,32 +7611,32 @@
         <v>45090.456342592603</v>
       </c>
       <c r="D132" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E132" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H132" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I132" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J132" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K132" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L132" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M132" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -7661,32 +7650,32 @@
         <v>45090.456759259301</v>
       </c>
       <c r="D133" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E133" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I133" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J133" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K133" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L133" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M133" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -7700,32 +7689,32 @@
         <v>45090.4586458333</v>
       </c>
       <c r="D134" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E134" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H134" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="I134" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J134" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K134" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L134" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M134" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -7739,32 +7728,32 @@
         <v>45090.501111111102</v>
       </c>
       <c r="D135" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E135" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H135" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J135" t="s">
+        <v>16</v>
+      </c>
+      <c r="K135" t="s">
+        <v>50</v>
+      </c>
+      <c r="L135" t="s">
+        <v>79</v>
+      </c>
+      <c r="M135" t="s">
         <v>19</v>
-      </c>
-      <c r="K135" t="s">
-        <v>53</v>
-      </c>
-      <c r="L135" t="s">
-        <v>82</v>
-      </c>
-      <c r="M135" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -7778,32 +7767,32 @@
         <v>45090.501157407401</v>
       </c>
       <c r="D136" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E136" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H136" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I136" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J136" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K136" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L136" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M136" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -7817,32 +7806,32 @@
         <v>45090.504120370402</v>
       </c>
       <c r="D137" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E137" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H137" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I137" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J137" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K137" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L137" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M137" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -7856,32 +7845,32 @@
         <v>45090.517129629603</v>
       </c>
       <c r="D138" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E138" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H138" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="I138" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J138" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K138" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L138" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M138" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -7895,32 +7884,32 @@
         <v>45090.519270833298</v>
       </c>
       <c r="D139" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E139" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H139" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I139" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J139" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K139" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L139" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M139" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -7934,32 +7923,32 @@
         <v>45090.5210069444</v>
       </c>
       <c r="D140" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E140" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H140" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I140" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J140" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K140" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L140" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M140" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -7973,35 +7962,35 @@
         <v>45090.522418981498</v>
       </c>
       <c r="D141" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E141" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H141" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I141" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J141" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K141" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L141" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M141" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N141" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -8015,35 +8004,35 @@
         <v>45090.537037037</v>
       </c>
       <c r="D142" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E142" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H142" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="I142" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J142" t="s">
+        <v>16</v>
+      </c>
+      <c r="K142" t="s">
+        <v>17</v>
+      </c>
+      <c r="L142" t="s">
+        <v>79</v>
+      </c>
+      <c r="M142" t="s">
         <v>19</v>
       </c>
-      <c r="K142" t="s">
-        <v>20</v>
-      </c>
-      <c r="L142" t="s">
-        <v>82</v>
-      </c>
-      <c r="M142" t="s">
-        <v>22</v>
-      </c>
       <c r="N142" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -8057,32 +8046,32 @@
         <v>45090.539340277799</v>
       </c>
       <c r="D143" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E143" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H143" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I143" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J143" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K143" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L143" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M143" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -8096,32 +8085,32 @@
         <v>45090.539386574099</v>
       </c>
       <c r="D144" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E144" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H144" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I144" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J144" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K144" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L144" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M144" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -8135,32 +8124,32 @@
         <v>45090.549328703702</v>
       </c>
       <c r="D145" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E145" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H145" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I145" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J145" t="s">
+        <v>16</v>
+      </c>
+      <c r="K145" t="s">
+        <v>165</v>
+      </c>
+      <c r="L145" t="s">
+        <v>34</v>
+      </c>
+      <c r="M145" t="s">
         <v>19</v>
-      </c>
-      <c r="K145" t="s">
-        <v>168</v>
-      </c>
-      <c r="L145" t="s">
-        <v>37</v>
-      </c>
-      <c r="M145" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -8174,32 +8163,32 @@
         <v>45090.5538773148</v>
       </c>
       <c r="D146" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E146" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H146" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I146" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J146" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K146" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L146" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M146" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -8213,35 +8202,35 @@
         <v>45090.553958333301</v>
       </c>
       <c r="D147" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E147" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H147" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I147" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J147" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K147" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L147" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M147" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N147" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -8255,32 +8244,32 @@
         <v>45090.568356481497</v>
       </c>
       <c r="D148" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E148" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H148" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I148" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J148" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K148" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L148" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M148" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -8294,32 +8283,32 @@
         <v>45090.570520833302</v>
       </c>
       <c r="D149" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E149" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H149" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I149" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J149" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K149" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L149" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M149" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -8333,32 +8322,32 @@
         <v>45090.571608796301</v>
       </c>
       <c r="D150" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E150" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H150" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="I150" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J150" t="s">
+        <v>16</v>
+      </c>
+      <c r="K150" t="s">
+        <v>435</v>
+      </c>
+      <c r="L150" t="s">
+        <v>41</v>
+      </c>
+      <c r="M150" t="s">
         <v>19</v>
-      </c>
-      <c r="K150" t="s">
-        <v>438</v>
-      </c>
-      <c r="L150" t="s">
-        <v>44</v>
-      </c>
-      <c r="M150" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -8372,32 +8361,32 @@
         <v>45090.573194444398</v>
       </c>
       <c r="D151" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E151" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H151" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="I151" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J151" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K151" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L151" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M151" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -8411,32 +8400,32 @@
         <v>45090.573206018496</v>
       </c>
       <c r="D152" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E152" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H152" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I152" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J152" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K152" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L152" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M152" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -8450,32 +8439,32 @@
         <v>45090.574537036999</v>
       </c>
       <c r="D153" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E153" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H153" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="I153" t="s">
+        <v>15</v>
+      </c>
+      <c r="J153" t="s">
+        <v>16</v>
+      </c>
+      <c r="K153" t="s">
+        <v>25</v>
+      </c>
+      <c r="L153" t="s">
         <v>18</v>
       </c>
-      <c r="J153" t="s">
-        <v>19</v>
-      </c>
-      <c r="K153" t="s">
-        <v>28</v>
-      </c>
-      <c r="L153" t="s">
-        <v>21</v>
-      </c>
       <c r="M153" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -8489,32 +8478,32 @@
         <v>45090.589733796303</v>
       </c>
       <c r="D154" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E154" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H154" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I154" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J154" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K154" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L154" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M154" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -8528,32 +8517,32 @@
         <v>45090.6043055556</v>
       </c>
       <c r="D155" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E155" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H155" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I155" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J155" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K155" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L155" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M155" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -8567,32 +8556,32 @@
         <v>45090.642766203702</v>
       </c>
       <c r="D156" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E156" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H156" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="I156" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J156" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K156" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L156" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M156" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -8606,32 +8595,32 @@
         <v>45090.734930555598</v>
       </c>
       <c r="D157" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E157" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H157" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="I157" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J157" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K157" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L157" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M157" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -8645,32 +8634,32 @@
         <v>45090.805682870399</v>
       </c>
       <c r="D158" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E158" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H158" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="I158" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J158" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K158" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L158" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M158" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
